--- a/De1.xlsx
+++ b/De1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TAI LIEU DAY CNTT\TAI LIEU_DANG QUOC TRUNG\Chung chi ung dung_CNTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\chtien18.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -704,15 +704,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>161396</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>4233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1198562</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>80433</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -735,8 +735,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9029700" y="4657725"/>
-          <a:ext cx="1676400" cy="1676400"/>
+          <a:off x="8628063" y="4568296"/>
+          <a:ext cx="1672166" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -747,16 +747,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>507394</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361873</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>86255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>527579</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -779,8 +779,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5536594" y="6753225"/>
-          <a:ext cx="2769206" cy="1971675"/>
+          <a:off x="8167081" y="7031568"/>
+          <a:ext cx="2785081" cy="1955800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="72" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
